--- a/development/L1Menu_Collisions2022_v1_5_0/PrescaleTable/L1Menu_Collisions2022_v1_5_0.xlsx
+++ b/development/L1Menu_Collisions2022_v1_5_0/PrescaleTable/L1Menu_Collisions2022_v1_5_0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3EFC2-ABFE-4CFE-9F71-1114850C7B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A81EF5-43CD-49EE-AE00-FA87EE8324ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="L1Menu_Collisions2022_v1_5_0" sheetId="1" r:id="rId1"/>
@@ -1261,10 +1261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1744,7 +1741,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2099,16 +2096,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -7454,55 +7451,55 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -7516,55 +7513,55 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -7578,55 +7575,55 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -7640,55 +7637,55 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -27533,6 +27530,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/development/L1Menu_Collisions2022_v1_5_0/PrescaleTable/L1Menu_Collisions2022_v1_5_0.xlsx
+++ b/development/L1Menu_Collisions2022_v1_5_0/PrescaleTable/L1Menu_Collisions2022_v1_5_0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A81EF5-43CD-49EE-AE00-FA87EE8324ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8B01D-4768-4FAD-964E-C14CBD4C29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1Menu_Collisions2022_v1_5_0" sheetId="1" r:id="rId1"/>
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2096,11 +2096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <v>1</v>

--- a/development/L1Menu_Collisions2022_v1_5_0/PrescaleTable/L1Menu_Collisions2022_v1_5_0.xlsx
+++ b/development/L1Menu_Collisions2022_v1_5_0/PrescaleTable/L1Menu_Collisions2022_v1_5_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8B01D-4768-4FAD-964E-C14CBD4C29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D2114-790E-4243-AB01-747C73FCBE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6025,55 +6025,55 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
